--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1222961.237709333</v>
+        <v>1261072.615966212</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17281035.08926389</v>
+        <v>16641689.10798709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>492028.934248444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6885223.128965449</v>
+        <v>6915130.702936002</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>200.3950298573063</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>308.4779682808547</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.52166798478973</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>267.9253124862258</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>176.143817257805</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>313.6191081540381</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.7463865545671</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,16 +1063,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>27.07950026194628</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>37.22183484680973</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398616</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.34089116986716</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>154.0254420454378</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907176</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1531,13 +1531,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>172.4933240080315</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>41.77118486549536</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>154.4380635245701</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.6403417557258</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.990127247639</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.22772027659476</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317944</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>137.5563529521286</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>47.614048497498</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>24.62703520776672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,10 +2302,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>81.0109880549457</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>103.828474294603</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>99.28616603324285</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77118486549566</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225797</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.0567773522583</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>273.4286173226611</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>50.29424103733329</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3247,10 +3247,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>125.1716544454849</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>135.1077460700516</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3472,7 +3472,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>98.7312070658988</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112161</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3661,7 +3661,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>80.616085178706</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>121.9901272476393</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3679,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3727,7 +3727,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791327175</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>71.43430199953268</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>78.47678022721476</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>103.8284742946034</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.67077719907341</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>33.08339867820333</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>126.7541180064924</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4201,7 +4201,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>6.133574646794722</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.1887779922017</v>
+        <v>1837.428633937019</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1399.286161120442</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>1196.866939042355</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>763.0921942006503</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.2247646098581</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>335.2247646098581</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.09461005307434</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>480.9325081331322</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1002.975152381413</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1568.238183299066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2114.73696925766</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2283.075983462154</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.774472177456</v>
+        <v>2267.973924081869</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.4883484771095</v>
+        <v>1859.687800381523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>551.8495656715071</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>445.3931045081494</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>350.3028156547027</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>256.1824009816564</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>172.798562597818</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>87.41347286400187</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>71.74149384067194</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>396.2998188068843</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>961.5628497245367</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>961.5628497245367</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>961.5628497245367</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1051.005865432608</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1591.744804064683</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.917582159023</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1645.462144607406</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1515.283500938008</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1338.946953937976</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1139.829435999975</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>954.5066817331694</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>799.6392459720495</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>673.1534667512702</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6507226398521</v>
+        <v>553.8755287447295</v>
       </c>
       <c r="C4" t="n">
-        <v>210.6507226398521</v>
+        <v>381.3138172279544</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>215.4358244294771</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>45.67782068021435</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>132.2575058449042</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>407.0159604160398</v>
       </c>
       <c r="L4" t="n">
-        <v>689.2685070454004</v>
+        <v>825.2258421840008</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>906.2633127926173</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1348.522115950262</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1768.191365176044</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2115.698259146385</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2283.891034010717</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2269.22268251093</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2109.981313808926</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1864.101867387381</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1585.668866640487</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1298.713358510917</v>
       </c>
       <c r="W4" t="n">
-        <v>456.0424773064397</v>
+        <v>1026.686954097209</v>
       </c>
       <c r="X4" t="n">
-        <v>210.6507226398521</v>
+        <v>781.2951994306213</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.6507226398521</v>
+        <v>553.8755287447295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>978.3722678587817</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>540.2297950422051</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2492.137778696271</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2232.915476013288</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1828.060021424321</v>
       </c>
       <c r="X5" t="n">
-        <v>1379.581401598483</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.33568193854</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>542.1413766661235</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C7" t="n">
-        <v>369.5796651493484</v>
+        <v>847.3485218817319</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>681.4705290832546</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>511.7125253339919</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>335.0054712957481</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>169.4141963215757</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1581.05148302064</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
-        <v>1238.091239336891</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W7" t="n">
-        <v>966.0648349231828</v>
+        <v>1684.540277469973</v>
       </c>
       <c r="X7" t="n">
-        <v>720.6730802565953</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.6730802565953</v>
+        <v>1211.728852117494</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>885.4367683080799</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>851.3346995319073</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>819.4653187467559</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>385.6905739050511</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>361.8635483546628</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>324.2657353780874</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>35.13558082130363</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>34.71879144844364</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>34.71879144844364</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>277.8503751456552</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>707.4954193201453</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>707.4954193201453</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>707.4954193201453</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1137.140463494635</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1137.140463494635</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1566.785507669125</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1735.939572422182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1735.939572422182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1735.939572422182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1735.939572422182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1735.939572422182</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1735.124521873619</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1315.98205845293</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>907.6959347525836</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.8905364397365</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>434.4340752763787</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>339.343786422932</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>245.2233717498857</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.8395333660473</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>76.45444363223118</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>34.71879144844364</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.78246460890124</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>385.3407895751136</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>814.9858337496036</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1151.140730658423</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.785774832913</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.958552927253</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1634.503115375636</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1504.324471706237</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.987924706206</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.870406768205</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>943.5476525013989</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>788.6802167402789</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>662.1944375194996</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>631.5764487382834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>459.0147372215083</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D10" t="n">
-        <v>293.136744423031</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>123.3787406737683</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>123.3787406737683</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>123.3787406737683</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>123.3787406737683</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>34.71879144844364</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>121.2984766131335</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>396.0569311842691</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>396.0569311842691</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>396.0569311842691</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>825.7019753587591</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1245.371224584541</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1567.74679755785</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1735.939572422182</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1735.939572422182</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.939572422182</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.939572422182</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1457.506571675287</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1170.551063545718</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>898.5246591320094</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>653.1329044654219</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.5764487382834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G11" t="n">
         <v>386.282920610759</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397526</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.662814845622</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C13" t="n">
-        <v>912.1011033288465</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="D13" t="n">
-        <v>746.2231105303692</v>
+        <v>837.3544329777444</v>
       </c>
       <c r="E13" t="n">
-        <v>576.4651067811066</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F13" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111519</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2511.961101856159</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.274771460366</v>
+        <v>2233.528101109264</v>
       </c>
       <c r="V13" t="n">
-        <v>2021.319263330797</v>
+        <v>1946.572592979694</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.292858917088</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.901104250501</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.481433564609</v>
+        <v>1201.734763213507</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168568</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526436</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>944.829865684731</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939388</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172019</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693463</v>
+        <v>1356.079523257017</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693463</v>
+        <v>2481.810506693464</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263769</v>
+        <v>3461.99017326377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097165</v>
+        <v>4290.300048097166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653476</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K15" t="n">
         <v>1102.064021433509</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>910.4271340294276</v>
+        <v>806.2298140987272</v>
       </c>
       <c r="C16" t="n">
-        <v>737.865422512653</v>
+        <v>633.6681025819521</v>
       </c>
       <c r="D16" t="n">
-        <v>571.9874297141757</v>
+        <v>467.7901097834749</v>
       </c>
       <c r="E16" t="n">
-        <v>402.229425964913</v>
+        <v>298.0321060342121</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J16" t="n">
         <v>183.3156618458051</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460366</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713471</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170193</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
         <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1102.245752748415</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847305</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939383</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172022</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4711828007304</v>
+        <v>970.9960463903983</v>
       </c>
       <c r="C19" t="n">
-        <v>792.9094712839553</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D19" t="n">
-        <v>627.031478485478</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9364800031568</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>402.229425964913</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907407</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285905</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.709472205609</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519717</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5756,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883918</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716167</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300484</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109937</v>
+        <v>970.9960463903956</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931619</v>
+        <v>798.4343348736205</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674087</v>
+        <v>632.5563420751432</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258805</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876368</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134644</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595112</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514816</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828924</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903959</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736209</v>
+        <v>868.8551150562605</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751436</v>
+        <v>702.9771222577833</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258808</v>
+        <v>533.2191185085205</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287637</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134648</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.60800300514</v>
+        <v>2037.609112501888</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.652494875571</v>
+        <v>1750.653604372319</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461862</v>
+        <v>1478.62719995861</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795275</v>
+        <v>1233.235445292023</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109383</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="32">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>889.8015492906973</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>723.92355649222</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
         <v>673.1212928181459</v>
@@ -6859,7 +6859,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
         <v>881.8088617745661</v>
@@ -6889,19 +6889,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V34" t="n">
         <v>1726.993304878939</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878939</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>982.1554751127509</v>
+        <v>849.8497331100114</v>
       </c>
       <c r="C37" t="n">
-        <v>809.5937635959758</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7120,25 +7120,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127509</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7181,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1039.174348374284</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C40" t="n">
-        <v>866.6126368575086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>700.7346440590313</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>530.9766403097686</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7363,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1754.817722506752</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.992967093271</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2085.232711245549</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771609</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004247</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H41" t="n">
-        <v>102.677629643641</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176684</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580387</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>4764.642973450171</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4544.575746323209</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4544.575746323209</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4181.958796257036</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3777.103341668069</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3357.96087824738</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1999.901442036169</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1727.87503762246</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1482.483282955873</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1255.063612269981</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047133</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205428</v>
       </c>
       <c r="F44" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H44" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I44" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J44" t="n">
         <v>531.9906641340331</v>
@@ -7652,46 +7652,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.798049006191</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006191</v>
+        <v>4803.381259633332</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I45" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
         <v>1102.064021433509</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>998.0484328177145</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C46" t="n">
-        <v>825.4867213009394</v>
+        <v>833.4744220269588</v>
       </c>
       <c r="D46" t="n">
-        <v>825.4867213009394</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="E46" t="n">
-        <v>655.7287175516767</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F46" t="n">
-        <v>479.0216635134328</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G46" t="n">
-        <v>313.4303885392604</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H46" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J46" t="n">
         <v>183.3156618458051</v>
@@ -7828,28 +7828,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460366</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713471</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177145</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709912</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,16 +8058,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>81.85603091779444</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>117.3049970300783</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>245.5874582800117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>433.9848931055455</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>433.9848931055456</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055456</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055454</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179992</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055456</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055456</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>325.6318918922314</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154649</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>832.4129890131148</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>268.0111327346208</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>50.1445778789296</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.446659489829784</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>201.6494670918339</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>267.5985112554886</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.5985112554901</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.1553467313938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.0111327346211</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>33.27974144947868</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>161.926849064976</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627263</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.6516710866788</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142709</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.220053416764586</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>117.7661826744368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>144.1344859240865</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>29.11146680044089</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>58.9177479490845</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>90.22000922290131</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.94985625022206</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>11.38105307846869</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.14457787892795</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>11.74903456003686</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.0118993322381</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>587483.2722663336</v>
+        <v>593500.1661665189</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>587483.2722663336</v>
+        <v>597460.4739124675</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>587880.7302077148</v>
+        <v>597460.4739124675</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582378.9009481786</v>
+        <v>582378.9009481785</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582378.9009481784</v>
+        <v>582378.9009481786</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>582378.9009481784</v>
+        <v>606955.95606306</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606955.95606306</v>
+        <v>606955.9560630601</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606955.9560630601</v>
+        <v>606955.95606306</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606955.95606306</v>
+        <v>582378.9009481786</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232859</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="E2" t="n">
         <v>353866.7285801735</v>
       </c>
       <c r="F2" t="n">
-        <v>353866.7285801734</v>
+        <v>353866.7285801736</v>
       </c>
       <c r="G2" t="n">
-        <v>353866.7285801736</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961467</v>
@@ -26347,13 +26347,13 @@
         <v>368800.3088961467</v>
       </c>
       <c r="N2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>368800.3088961468</v>
+        <v>353866.7285801735</v>
       </c>
       <c r="P2" t="n">
-        <v>353866.7285801736</v>
+        <v>353866.7285801735</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>191346.1037476934</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>31190.03493745914</v>
       </c>
       <c r="D3" t="n">
-        <v>3009.705123905594</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>231462.0891550076</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18928.52796216466</v>
       </c>
       <c r="H3" t="n">
-        <v>18633.22400329709</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>149391.596425675</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24846.93678393336</v>
       </c>
       <c r="L3" t="n">
-        <v>2452.207705354894</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>193186.6328590335</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>166144.7923478713</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>191876.6847184968</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908701</v>
       </c>
       <c r="F4" t="n">
         <v>52352.49019908701</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.490199087</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962281</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962276</v>
+        <v>52352.49019908696</v>
       </c>
       <c r="P4" t="n">
-        <v>52352.490199087</v>
+        <v>52352.49019908701</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>68342.7437169629</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>60013.88150081717</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764753</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20009.64452481077</v>
+        <v>-50530.51588924156</v>
       </c>
       <c r="C6" t="n">
-        <v>122181.6561348991</v>
+        <v>121890.3701782801</v>
       </c>
       <c r="D6" t="n">
-        <v>120402.8525800665</v>
+        <v>153080.4051157393</v>
       </c>
       <c r="E6" t="n">
-        <v>-3467.193051568611</v>
+        <v>66183.26233852762</v>
       </c>
       <c r="F6" t="n">
-        <v>227994.8961034389</v>
+        <v>227918.3375486422</v>
       </c>
       <c r="G6" t="n">
-        <v>227994.896103439</v>
+        <v>217568.4928791841</v>
       </c>
       <c r="H6" t="n">
-        <v>217887.0211774344</v>
+        <v>236497.0208413487</v>
       </c>
       <c r="I6" t="n">
-        <v>236520.2451807314</v>
+        <v>236497.0208413488</v>
       </c>
       <c r="J6" t="n">
-        <v>125505.7798357413</v>
+        <v>87105.42441567377</v>
       </c>
       <c r="K6" t="n">
-        <v>236520.2451807314</v>
+        <v>211650.0840574153</v>
       </c>
       <c r="L6" t="n">
-        <v>234068.0374753765</v>
+        <v>236497.0208413488</v>
       </c>
       <c r="M6" t="n">
-        <v>43333.61232169787</v>
+        <v>101507.0762283452</v>
       </c>
       <c r="N6" t="n">
-        <v>236520.2451807313</v>
+        <v>236497.0208413488</v>
       </c>
       <c r="O6" t="n">
-        <v>236520.2451807315</v>
+        <v>227918.3375486422</v>
       </c>
       <c r="P6" t="n">
-        <v>227994.8961034391</v>
+        <v>227918.3375486422</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>433.9848931055455</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26802,7 +26802,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,7 +26826,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="P4" t="n">
         <v>1209.19970851394</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="D4" t="n">
-        <v>9.68903558544118</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>775.2148154083943</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="H4" t="n">
-        <v>69.06079487080524</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
-        <v>9.68903558544118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083943</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>570.9727585026793</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>96.54244810517764</v>
       </c>
       <c r="L4" t="n">
-        <v>9.68903558544118</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>775.2148154083943</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="P4" t="n">
-        <v>69.06079487080524</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>231.1556571199936</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4730705056277</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>6.681975096892108</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.380827883345546</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>41.72273759788672</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>101.3319306324443</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.15404597723017</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>360.162018216159</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>212.8683581419007</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54.79268646174569</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.8045828091657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2.813749233609997e-12</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-5.421972049387232e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>527.3158022709912</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>570.9727585026792</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>90.34648051320323</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>81.85603091779444</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>117.3049970300783</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>245.5874582800117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>433.9848931055455</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>433.9848931055456</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>433.9848931055456</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>433.9848931055454</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>339.5504009179992</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>433.9848931055456</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>433.9848931055456</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>325.6318918922314</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>661.5502973433599</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154649</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>832.4129890131148</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>480.4689614154649</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37230,16 +37230,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>753.9218057523913</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807368</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
